--- a/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#UNC%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51C806A-E6B2-40F8-9F65-9D407E7370F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3353E7A-B80F-478C-BCDB-46D2FC3BF456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -313,12 +313,6 @@
     <t>750.000</t>
   </si>
   <si>
-    <t>200 years since the discovery of the Antarctic</t>
-  </si>
-  <si>
-    <t>100th anniversary of the Treaty of Tartu</t>
-  </si>
-  <si>
     <t>150th Anniversary - Society of Estonian Literati</t>
   </si>
   <si>
@@ -335,6 +329,12 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Finno-Ugric Peoples</t>
+  </si>
+  <si>
+    <t>Wolf</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1288,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>25</v>
@@ -1349,7 +1349,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>25</v>
@@ -1870,7 +1870,7 @@
         <v>2021</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>27</v>
@@ -1897,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="K15" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="20" t="s">
         <v>5</v>
@@ -1912,7 +1912,7 @@
         <v>2021</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>27</v>
@@ -1939,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="20" t="s">
         <v>5</v>
@@ -1954,7 +1954,7 @@
         <v>2022</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>27</v>
@@ -1981,7 +1981,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="20" t="s">
         <v>5</v>
@@ -1996,7 +1996,7 @@
         <v>2022</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>27</v>
@@ -2023,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="K18" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="20" t="s">
         <v>5</v>
@@ -2038,7 +2038,7 @@
         <v>2022</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>27</v>
@@ -2068,7 +2068,7 @@
         <v>5</v>
       </c>
       <c r="L19" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2080,7 +2080,7 @@
         <v>2023</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>27</v>
@@ -2101,7 +2101,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="20" t="s">
         <v>5</v>
@@ -2697,7 +2697,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#UNC%varieties.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3353E7A-B80F-478C-BCDB-46D2FC3BF456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30F9681-7846-4F55-BDAC-ADEE3E67CC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{828E0731-2279-42C5-AE03-8804C69D0573}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{828E0731-2279-42C5-AE03-8804C69D0573}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{1B280CBE-BEBF-4929-99D8-164458841E05}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{1B280CBE-BEBF-4929-99D8-164458841E05}">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="56">
   <si>
     <t>Year</t>
   </si>
@@ -193,12 +193,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -335,6 +329,27 @@
   </si>
   <si>
     <t>Wolf</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>The 100th anniversary of the foundation of the independent Baltic states</t>
   </si>
 </sst>
 </file>
@@ -461,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -476,17 +491,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,24 +626,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -661,31 +662,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -694,20 +695,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1282,1315 +1283,1417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="2" width="48.54296875" customWidth="1"/>
-    <col min="3" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="6" width="12.36328125" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" customWidth="1"/>
-    <col min="9" max="10" width="4" customWidth="1"/>
-    <col min="11" max="12" width="3.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
+    <col min="3" max="5" width="24.7265625" customWidth="1"/>
+    <col min="6" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="11" width="4" customWidth="1"/>
+    <col min="12" max="13" width="3.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="6" t="str">
+        <f t="shared" ref="N3:N20" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="19">
-        <v>1</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="7" t="str">
-        <f t="shared" ref="M3:M20" si="0">IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>2013</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="7" t="str">
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>2014</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="7" t="str">
+      <c r="B5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>2015</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="I6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="20">
+        <v>2</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="6" t="str">
+        <f>IF(OR(AND(K6&gt;1,K6&lt;&gt;"-"),AND(L6&gt;1,L6&lt;&gt;"-"),AND(M6&gt;1,M6&lt;&gt;"-"),AND(J6&gt;1,J6&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="21">
-        <v>2</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="7" t="str">
-        <f>IF(OR(AND(J6&gt;1,J6&lt;&gt;"-"),AND(K6&gt;1,K6&lt;&gt;"-"),AND(L6&gt;1,L6&lt;&gt;"-"),AND(I6&gt;1,I6&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="21">
+      <c r="I7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="20">
         <v>1</v>
       </c>
-      <c r="L7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="7" t="str">
+      <c r="M7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>2017</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>31</v>
+      <c r="B8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="21">
+        <v>29</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="20">
         <v>1</v>
       </c>
-      <c r="L8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="7" t="str">
+      <c r="M8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>2018</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="21">
+      <c r="I9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="20">
         <v>1</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="7" t="str">
+      <c r="M9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>2018</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>32</v>
+      <c r="B10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="21">
+        <v>30</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="20">
         <v>1</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="7" t="str">
+      <c r="M10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>2019</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="21">
+      <c r="B11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="20">
         <v>1</v>
       </c>
-      <c r="M11" s="7" t="str">
+      <c r="N11" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
         <v>2019</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="21">
+      <c r="B12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="20">
         <v>2</v>
       </c>
-      <c r="M12" s="7" t="str">
+      <c r="N12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>2020</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="21">
+      <c r="I13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="20">
         <v>1</v>
       </c>
-      <c r="L13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="7" t="str">
+      <c r="M13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>2020</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>24</v>
+      <c r="B14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="21">
+        <v>22</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="20">
         <v>1</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="7" t="str">
+      <c r="M14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>2021</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>24</v>
+      <c r="B15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="21">
+        <v>22</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="20">
         <v>1</v>
       </c>
-      <c r="L15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="7" t="str">
+      <c r="M15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>2021</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>24</v>
+      <c r="B16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="21">
+        <v>22</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="20">
         <v>1</v>
       </c>
-      <c r="L16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="7" t="str">
+      <c r="M16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>2022</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>24</v>
+      <c r="B17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="21">
+        <v>22</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="20">
         <v>1</v>
       </c>
-      <c r="L17" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="7" t="str">
+      <c r="M17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>2022</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>24</v>
+      <c r="B18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="21">
+        <v>22</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="20">
         <v>1</v>
       </c>
-      <c r="L18" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="7" t="str">
+      <c r="M18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>2022</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="21">
+      <c r="B19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="20">
         <v>1</v>
       </c>
-      <c r="M19" s="7" t="str">
+      <c r="N19" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>2023</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>24</v>
+      <c r="B20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="21">
+        <v>22</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="20">
         <v>1</v>
       </c>
-      <c r="J20" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="7" t="str">
+      <c r="K20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="J1:M1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3">
+  <conditionalFormatting sqref="K3">
     <cfRule type="containsText" dxfId="35" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M12">
+    <cfRule type="containsText" dxfId="34" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L10">
+    <cfRule type="containsText" dxfId="33" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L10">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M12">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="containsText" dxfId="32" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3 M6:M10">
+    <cfRule type="containsText" dxfId="31" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M10 M3">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L12 K6:K12">
+    <cfRule type="containsText" dxfId="30" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L12 K6:K12">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:M5">
+    <cfRule type="containsText" dxfId="29" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:M5">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="containsText" dxfId="28" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="containsText" dxfId="27" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="containsText" dxfId="26" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="containsText" dxfId="25" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="containsText" dxfId="24" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="containsText" dxfId="23" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="containsText" dxfId="22" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="containsText" dxfId="21" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="containsText" dxfId="20" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="containsText" dxfId="19" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="containsText" dxfId="18" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="containsText" dxfId="17" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="containsText" dxfId="14" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="12" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J19">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12">
-    <cfRule type="containsText" dxfId="34" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K10">
-    <cfRule type="containsText" dxfId="33" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K10">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="32" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3 L6:L10">
-    <cfRule type="containsText" dxfId="31" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L10 L3">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12 J6:J12">
-    <cfRule type="containsText" dxfId="30" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K12 J6:J12">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:L5">
-    <cfRule type="containsText" dxfId="29" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:L5">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="28" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="27" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="26" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="25" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="24" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="23" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="22" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="21" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="20" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="19" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="18" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="17" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="14" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="12" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="J3:J19">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2602,79 +2705,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I19">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2697,92 +2732,92 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="4.81640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>19</v>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>21</v>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#UNC%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30F9681-7846-4F55-BDAC-ADEE3E67CC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB41E516-2FAE-4EED-AA81-40D642114092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="58">
   <si>
     <t>Year</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>The 100th anniversary of the foundation of the independent Baltic states</t>
+  </si>
+  <si>
+    <t>Estonian National Flower - Cornflower</t>
+  </si>
+  <si>
+    <t>????</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="40">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -726,6 +732,38 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1283,13 +1321,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1407,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="N3" s="6" t="str">
-        <f t="shared" ref="N3:N20" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="N3:N21" si="0">IF(OR(AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-"),AND(M3&gt;1,M3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2148,6 +2186,49 @@
         <v>3</v>
       </c>
       <c r="N20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2161,11 +2242,79 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="K3">
+    <cfRule type="containsText" dxfId="39" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M12">
+    <cfRule type="containsText" dxfId="38" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L10">
+    <cfRule type="containsText" dxfId="37" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L10">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M12">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="containsText" dxfId="36" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3 M6:M10">
     <cfRule type="containsText" dxfId="35" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M10 M3">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2177,17 +2326,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
-    <cfRule type="containsText" dxfId="34" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L10">
-    <cfRule type="containsText" dxfId="33" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L10">
+  <conditionalFormatting sqref="L11:L12 K6:K12">
+    <cfRule type="containsText" dxfId="34" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L12 K6:K12">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2199,7 +2343,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
+  <conditionalFormatting sqref="K4:M5">
+    <cfRule type="containsText" dxfId="33" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:M5">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2211,12 +2360,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
+  <conditionalFormatting sqref="L14">
     <cfRule type="containsText" dxfId="32" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2228,12 +2377,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3 M6:M10">
+  <conditionalFormatting sqref="L13">
     <cfRule type="containsText" dxfId="31" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M10 M3">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2245,12 +2394,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12 K6:K12">
+  <conditionalFormatting sqref="M13">
     <cfRule type="containsText" dxfId="30" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12 K6:K12">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2262,12 +2411,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:M5">
+  <conditionalFormatting sqref="M14">
     <cfRule type="containsText" dxfId="29" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:M5">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2279,12 +2428,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="K13">
     <cfRule type="containsText" dxfId="28" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2296,12 +2445,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+  <conditionalFormatting sqref="K14">
     <cfRule type="containsText" dxfId="27" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2313,12 +2462,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
+  <conditionalFormatting sqref="L16">
     <cfRule type="containsText" dxfId="26" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2330,12 +2479,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
+  <conditionalFormatting sqref="L15">
     <cfRule type="containsText" dxfId="25" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2347,12 +2496,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+  <conditionalFormatting sqref="M15">
     <cfRule type="containsText" dxfId="24" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2364,12 +2513,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="M16">
     <cfRule type="containsText" dxfId="23" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2381,12 +2530,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+  <conditionalFormatting sqref="K15">
     <cfRule type="containsText" dxfId="22" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2398,12 +2547,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
+  <conditionalFormatting sqref="K16">
     <cfRule type="containsText" dxfId="21" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2415,29 +2564,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="20" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
+  <conditionalFormatting sqref="M20">
+    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
     <cfRule type="containsText" dxfId="19" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2449,12 +2598,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="K17">
     <cfRule type="containsText" dxfId="18" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2466,29 +2615,131 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="17" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20">
-    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20">
+  <conditionalFormatting sqref="M18">
+    <cfRule type="containsText" dxfId="17" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="16" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="containsText" dxfId="15" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2500,97 +2751,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="14" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="12" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
+  <conditionalFormatting sqref="M19">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J19">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J19">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2602,29 +2802,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+  <conditionalFormatting sqref="J21">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2636,63 +2836,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J19">
+  <conditionalFormatting sqref="K21">
     <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J19">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2704,12 +2853,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="L21">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#UNC%varieties.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB41E516-2FAE-4EED-AA81-40D642114092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1E65FA-BECD-414B-B8E5-24AEEE114213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="57">
   <si>
     <t>Year</t>
   </si>
@@ -353,9 +353,6 @@
   </si>
   <si>
     <t>Estonian National Flower - Cornflower</t>
-  </si>
-  <si>
-    <t>????</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1324,7 @@
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2204,8 +2201,8 @@
       <c r="E21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>57</v>
+      <c r="F21" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>3</v>
@@ -2217,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>3</v>
@@ -2881,7 +2878,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#UNC%varieties.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1E65FA-BECD-414B-B8E5-24AEEE114213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CD2FD9-CE82-4A37-95FA-D2E2E0A7C8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="59">
   <si>
     <t>Year</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>Estonian National Flower - Cornflower</t>
+  </si>
+  <si>
+    <t>500th Anniversary - First Printed Text in Estonian</t>
+  </si>
+  <si>
+    <t>850.000</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,55 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1047,9 +1101,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1318,13 +1372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2230,6 +2284,49 @@
         <v/>
       </c>
     </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>2025</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="20">
+        <v>1</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="6" t="str">
+        <f t="shared" ref="N22" si="1">IF(OR(AND(K22&gt;1,K22&lt;&gt;"-"),AND(L22&gt;1,L22&lt;&gt;"-"),AND(M22&gt;1,M22&lt;&gt;"-"),AND(J22&gt;1,J22&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="J1:M1"/>
@@ -2239,11 +2336,113 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="K3">
+    <cfRule type="containsText" dxfId="45" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M12">
+    <cfRule type="containsText" dxfId="44" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L10">
+    <cfRule type="containsText" dxfId="43" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L10">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M12">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="containsText" dxfId="42" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3 M6:M10">
+    <cfRule type="containsText" dxfId="41" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M10 M3">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L12 K6:K12">
+    <cfRule type="containsText" dxfId="40" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L12 K6:K12">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:M5">
     <cfRule type="containsText" dxfId="39" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:M5">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2255,17 +2454,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
-    <cfRule type="containsText" dxfId="38" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L10">
-    <cfRule type="containsText" dxfId="37" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L10">
+  <conditionalFormatting sqref="L14">
+    <cfRule type="containsText" dxfId="38" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2277,7 +2471,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M12">
+  <conditionalFormatting sqref="L13">
+    <cfRule type="containsText" dxfId="37" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2289,12 +2488,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
+  <conditionalFormatting sqref="M13">
     <cfRule type="containsText" dxfId="36" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2306,12 +2505,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3 M6:M10">
+  <conditionalFormatting sqref="M14">
     <cfRule type="containsText" dxfId="35" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M10 M3">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2323,12 +2522,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12 K6:K12">
+  <conditionalFormatting sqref="K13">
     <cfRule type="containsText" dxfId="34" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L12 K6:K12">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2340,12 +2539,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:M5">
+  <conditionalFormatting sqref="K14">
     <cfRule type="containsText" dxfId="33" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:M5">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2357,12 +2556,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="L16">
     <cfRule type="containsText" dxfId="32" priority="81" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2374,12 +2573,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+  <conditionalFormatting sqref="L15">
     <cfRule type="containsText" dxfId="31" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2391,12 +2590,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
+  <conditionalFormatting sqref="M15">
     <cfRule type="containsText" dxfId="30" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2408,12 +2607,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
+  <conditionalFormatting sqref="M16">
     <cfRule type="containsText" dxfId="29" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2425,12 +2624,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+  <conditionalFormatting sqref="K15">
     <cfRule type="containsText" dxfId="28" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2442,12 +2641,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="K16">
     <cfRule type="containsText" dxfId="27" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2459,29 +2658,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="26" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
+  <conditionalFormatting sqref="M20">
+    <cfRule type="containsText" dxfId="26" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
     <cfRule type="containsText" dxfId="25" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2493,12 +2692,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
+  <conditionalFormatting sqref="K17">
     <cfRule type="containsText" dxfId="24" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2510,29 +2709,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
-    <cfRule type="containsText" dxfId="23" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="22" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="M18">
+    <cfRule type="containsText" dxfId="23" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2544,12 +2726,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="21" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="K18">
+    <cfRule type="containsText" dxfId="22" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2561,12 +2743,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20">
+  <conditionalFormatting sqref="K19">
+    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
     <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2578,80 +2777,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="19" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="18" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="containsText" dxfId="17" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="16" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="containsText" dxfId="15" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
+  <conditionalFormatting sqref="L19">
+    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2663,12 +2828,97 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
+  <conditionalFormatting sqref="L20">
+    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J19">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J19">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2680,29 +2930,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="13" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+  <conditionalFormatting sqref="K21">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2714,80 +2964,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J19">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J19">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="M22">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2799,12 +2981,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
+  <conditionalFormatting sqref="K22">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2816,29 +2998,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
+  <conditionalFormatting sqref="L22">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2850,12 +3015,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2878,7 +3043,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Estonia/#EURO#Estonia#Commemorative#[2012-present]#UNC%varieties.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CD2FD9-CE82-4A37-95FA-D2E2E0A7C8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE6B99D-6981-4C6F-974E-96D0BCD820A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$I$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -334,9 +337,6 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>850.000</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -695,6 +698,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,55 +732,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -783,6 +741,38 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1101,9 +1091,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1378,57 +1368,55 @@
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" customWidth="1"/>
-    <col min="3" max="5" width="24.7265625" customWidth="1"/>
-    <col min="6" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" customWidth="1"/>
-    <col min="10" max="11" width="4" customWidth="1"/>
-    <col min="12" max="13" width="3.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" customWidth="1"/>
+    <col min="6" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="13" width="3.6328125" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="21" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>45</v>
@@ -1460,7 +1448,7 @@
         <v>2012</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>4</v>
@@ -1598,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>25</v>
@@ -1726,7 +1714,7 @@
         <v>2018</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>34</v>
@@ -2118,7 +2106,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>25</v>
@@ -2246,7 +2234,7 @@
         <v>2024</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16" t="s">
@@ -2289,7 +2277,7 @@
         <v>2025</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
@@ -2305,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>3</v>
@@ -2328,15 +2316,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="K3">
-    <cfRule type="containsText" dxfId="45" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2353,12 +2341,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M12">
-    <cfRule type="containsText" dxfId="44" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L10">
-    <cfRule type="containsText" dxfId="43" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2387,7 +2375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="containsText" dxfId="42" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2404,7 +2392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3 M6:M10">
-    <cfRule type="containsText" dxfId="41" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2421,7 +2409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L12 K6:K12">
-    <cfRule type="containsText" dxfId="40" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2438,7 +2426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:M5">
-    <cfRule type="containsText" dxfId="39" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2455,7 +2443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="38" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2472,7 +2460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="37" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2489,7 +2477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="36" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2506,7 +2494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="35" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2523,7 +2511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="containsText" dxfId="34" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2540,7 +2528,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="33" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2557,7 +2545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="32" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2574,7 +2562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="31" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2591,7 +2579,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="containsText" dxfId="30" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2608,7 +2596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="containsText" dxfId="29" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2625,7 +2613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="28" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2642,7 +2630,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="containsText" dxfId="27" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2659,7 +2647,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="containsText" dxfId="26" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2676,7 +2664,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="containsText" dxfId="25" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2693,7 +2681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="containsText" dxfId="24" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2710,7 +2698,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18">
-    <cfRule type="containsText" dxfId="23" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2727,7 +2715,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="containsText" dxfId="22" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2744,7 +2732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2761,7 +2749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2778,7 +2766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2795,7 +2783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2812,7 +2800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="17" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2829,7 +2817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="16" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2846,7 +2834,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2863,7 +2851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J19">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2880,7 +2868,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2897,7 +2885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2914,7 +2902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2931,7 +2919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2948,7 +2936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2965,7 +2953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2982,7 +2970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2999,7 +2987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3016,7 +3004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
     </cfRule>
   </conditionalFormatting>
